--- a/Sögur.xlsx
+++ b/Sögur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Development\hi\HBV201G\HotelBooking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259FFE81-1D87-40D1-B20E-50171B9BB29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78610523-CA90-42EA-B6F9-ADC122DBAE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1290" windowWidth="19245" windowHeight="14040" xr2:uid="{9D74B349-F7B1-4F00-88EA-3F02899C3A36}"/>
   </bookViews>
@@ -48,30 +48,9 @@
     <t>fá gagnagrunn til að vist í alla nauðsynlegar upplýsingar</t>
   </si>
   <si>
-    <t>vera viss um að inntak allra gilda í leitarskilyrðunum séu gild. td ekki bókstafir í talnastreng</t>
-  </si>
-  <si>
-    <t>með innskráningu á notanda sé hægt að vista leitir, fá notkunarsögu og skrifa endurgjöf undir nafni.</t>
-  </si>
-  <si>
-    <t>leita á mörgum tungumálum</t>
-  </si>
-  <si>
-    <t>ég vil leita að gistimöguleikum eftir tagi eins og: útsýni, miðbær, útivist o.s.frv.</t>
-  </si>
-  <si>
     <t>listi af niðurstöðum.</t>
   </si>
   <si>
-    <t>vill að niðurstaðn sé einn listi með öllum færslum sem uppfylla leitarskilyrðin.</t>
-  </si>
-  <si>
-    <t>vill fá boð frá leitarkallinu sem lætur vita þegar niðurstaðan er tilbúin til lesturs.</t>
-  </si>
-  <si>
-    <t>vill geta skipt leitarniðurstöðum í síður og einungis fengið þann fjölda niðurstaðna í senn sem fyllir eina síðu.</t>
-  </si>
-  <si>
     <t>bóka gistingu á völdum gististað.</t>
   </si>
   <si>
@@ -90,9 +69,6 @@
     <t>As a webmaster, I want to make sure that the payment process is handled by a verified third party to make the customer feel safe as well as making sure that payment is secure on our end.</t>
   </si>
   <si>
-    <t>vera viss um að leitarstrengurinn sé ekki sql injection.</t>
-  </si>
-  <si>
     <t>tryggja að svartími einstakrar fyrirspurna fari ekki yfir 2 sec.</t>
   </si>
   <si>
@@ -102,15 +78,9 @@
     <t>F</t>
   </si>
   <si>
-    <t>takmarka leitina við tímabil, verðbil, staðsetningu, tagi og hópastærð.</t>
-  </si>
-  <si>
     <t xml:space="preserve">finna gistingu </t>
   </si>
   <si>
-    <t>Skipta fyrirspurnum í smærrri fyrirspurnir sem síðan eru lesnsar saman</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -186,9 +156,6 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>Vil geta fengið myndir eða video af gististaðnum samkvæmt tögun</t>
-  </si>
-  <si>
     <t>as operator. I Want to identify hotels, images, videos and other constrains by custom tag, to be able to focus search on constrains like: city, outdoor, nature etc.</t>
   </si>
   <si>
@@ -196,6 +163,39 @@
   </si>
   <si>
     <t>3.2</t>
+  </si>
+  <si>
+    <t>as administrator, vera viss um að inntak allra gilda í leitarskilyrðunum séu gild. td ekki bókstafir í talnastreng</t>
+  </si>
+  <si>
+    <t>as consumer, vill að niðurstaðan sé einn listi með öllum færslum sem uppfylla leitarskilyrðin.</t>
+  </si>
+  <si>
+    <t>as consumer, vill fá boð frá leitarkallinu sem lætur vita þegar niðurstaðan er tilbúin til lesturs.</t>
+  </si>
+  <si>
+    <t>as customer, með innskráningu á notanda sé hægt að vista leitir, fá notkunarsögu og skrifa endurgjöf undir nafni.</t>
+  </si>
+  <si>
+    <t>as customer, leita á mörgum tungumálum</t>
+  </si>
+  <si>
+    <t>as customer, ég vil leita að gistimöguleikum eftir tagi eins og: útsýni, miðbær, útivist o.s.frv.</t>
+  </si>
+  <si>
+    <t>as customer, Vil geta fengið myndir eða video af gististaðnum samkvæmt tögun</t>
+  </si>
+  <si>
+    <t>as customer, takmarka leitina við tímabil, verðbil, staðsetningu, tagi og hópastærð.</t>
+  </si>
+  <si>
+    <t>as consumer, vill geta skipt leitarniðurstöðum í síður og einungis fengið þann fjölda niðurstaðna í senn sem fyllir eina síðu.</t>
+  </si>
+  <si>
+    <t>as administrator, vera viss um að leitarstrengurinn sé ekki sql injection.</t>
+  </si>
+  <si>
+    <t>as administrator, Skipta fyrirspurnum í smærrri fyrirspurnir sem síðan eru lesnsar saman (asynchronus)</t>
   </si>
 </sst>
 </file>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990ED43A-B445-467F-8EC5-D20AF64575F2}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -711,21 +711,21 @@
     </row>
     <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -736,10 +736,10 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -747,13 +747,13 @@
     </row>
     <row r="6" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -775,13 +775,13 @@
     </row>
     <row r="8" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7">
         <v>1</v>
@@ -789,13 +789,13 @@
     </row>
     <row r="9" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7">
         <v>3</v>
@@ -803,23 +803,23 @@
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="12" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
@@ -839,27 +839,27 @@
     </row>
     <row r="13" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
@@ -867,23 +867,23 @@
     </row>
     <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7">
         <v>3</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="17" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
@@ -905,23 +905,23 @@
     </row>
     <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -929,25 +929,25 @@
     </row>
     <row r="20" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -956,10 +956,10 @@
     <row r="22" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="C22" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E22" s="7">
         <v>2</v>
@@ -967,23 +967,23 @@
     </row>
     <row r="23" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E24" s="7">
         <v>2</v>
@@ -991,37 +991,37 @@
     </row>
     <row r="25" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E27" s="7">
         <v>2</v>

--- a/Sögur.xlsx
+++ b/Sögur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Development\hi\HBV201G\HotelBooking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78610523-CA90-42EA-B6F9-ADC122DBAE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4129F5C6-23EC-4696-AEBD-7CBA07A8818A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1290" windowWidth="19245" windowHeight="14040" xr2:uid="{9D74B349-F7B1-4F00-88EA-3F02899C3A36}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>tegund</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>as administrator, Skipta fyrirspurnum í smærrri fyrirspurnir sem síðan eru lesnsar saman (asynchronus)</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>as cusromer, i want to see my previous bookings. To refine my search to locations,</t>
   </si>
 </sst>
 </file>
@@ -364,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CD89003-91B5-4CFA-A092-E86F031CA309}" name="Table2" displayName="Table2" ref="A2:E28" totalsRowShown="0">
-  <autoFilter ref="A2:E28" xr:uid="{04E65E0E-3370-4D20-80DB-A7B1B4C822E8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CD89003-91B5-4CFA-A092-E86F031CA309}" name="Table2" displayName="Table2" ref="A2:E29" totalsRowShown="0">
+  <autoFilter ref="A2:E29" xr:uid="{04E65E0E-3370-4D20-80DB-A7B1B4C822E8}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E5A7083C-BC8F-4241-B06A-55A22A4D659C}" name="id" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{06664260-25D0-4A78-BCA6-1E00D07A7256}" name="sögur" dataDxfId="3"/>
@@ -674,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990ED43A-B445-467F-8EC5-D20AF64575F2}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,162 +807,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="15" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E16" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="E17" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="7">
         <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="7">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>14</v>
@@ -965,71 +973,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="27" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
@@ -1047,18 +1063,22 @@
       <c r="A32" s="14"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="7"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="17" max="16383" man="1"/>
+    <brk id="18" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
